--- a/StructureDefinition-profile-CareTeam.xlsx
+++ b/StructureDefinition-profile-CareTeam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="268">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6339381-06:00</t>
+    <t>2026-02-09T22:05:43.0073843-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -656,10 +656,43 @@
     <t>CareTeam.participant.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CareTeam.participant.extension:coverage</t>
+  </si>
+  <si>
+    <t>coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CareTeam.participant.coverage|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for CareTeam.participant.coverage[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>When the member is generally available within this care team.</t>
+  </si>
+  <si>
+    <t>Element `CareTeam.participant.coverage[x]` is will have a context of CareTeam.participant based on following the parent source element upwards and mapping to `CareTeam`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>CareTeam.participant.modifierExtension</t>
@@ -1127,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1136,7 +1169,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.4375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.44140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.4375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3300,7 +3333,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3322,14 +3355,12 @@
         <v>131</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3366,19 +3397,17 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3399,51 +3428,51 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="D21" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3491,7 +3520,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3500,7 +3529,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>136</v>
@@ -3512,19 +3541,19 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3537,24 +3566,26 @@
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3578,13 +3609,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -3602,7 +3633,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3614,24 +3645,24 @@
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>219</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3642,7 +3673,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -3654,16 +3685,16 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3689,13 +3720,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -3713,13 +3744,13 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
@@ -3728,21 +3759,21 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3765,18 +3796,18 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -3824,7 +3855,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3839,21 +3870,21 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3873,19 +3904,21 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -3933,7 +3966,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3959,10 +3992,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3973,7 +4006,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -3985,13 +4018,13 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4018,13 +4051,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4042,13 +4075,13 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
@@ -4057,7 +4090,7 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4068,10 +4101,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4094,13 +4127,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>158</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4127,13 +4160,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4151,7 +4184,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4166,7 +4199,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4177,10 +4210,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4200,21 +4233,19 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4262,7 +4293,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4277,7 +4308,7 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4288,10 +4319,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4311,21 +4342,21 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4373,7 +4404,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4399,10 +4430,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4425,15 +4456,17 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4482,7 +4515,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4503,6 +4536,115 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-CareTeam.xlsx
+++ b/StructureDefinition-profile-CareTeam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="267">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0073843-06:00</t>
+    <t>2026-02-17T14:42:26.7467969-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -672,23 +672,20 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>CareTeam.participant.extension:coverage</t>
-  </si>
-  <si>
-    <t>coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CareTeam.participant.coverage|0.0.1-snapshot-3}
+    <t>CareTeam.participant.extension:participant</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CareTeam.participant|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for CareTeam.participant.coverage[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>When the member is generally available within this care team.</t>
-  </si>
-  <si>
-    <t>Element `CareTeam.participant.coverage[x]` is will have a context of CareTeam.participant based on following the parent source element upwards and mapping to `CareTeam`.</t>
+    <t>Cross-version extension for CareTeam.participant from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `CareTeam.participant` has is mapped to FHIR R4 element `CareTeam.participant`, but has no comparisons.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1169,7 +1166,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.90234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.4375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3449,7 +3446,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3467,10 +3464,10 @@
         <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3529,7 +3526,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>136</v>
@@ -3546,14 +3543,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3575,10 +3572,10 @@
         <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>134</v>
@@ -3633,7 +3630,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3659,10 +3656,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3688,13 +3685,13 @@
         <v>158</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3723,11 +3720,11 @@
         <v>163</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Z23" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3744,7 +3741,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3762,18 +3759,18 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3796,16 +3793,16 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3855,7 +3852,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3870,21 +3867,21 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3907,17 +3904,17 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -3966,7 +3963,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3992,10 +3989,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4021,10 +4018,10 @@
         <v>186</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4075,7 +4072,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4101,10 +4098,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4130,10 +4127,10 @@
         <v>158</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4163,11 +4160,11 @@
         <v>163</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4184,7 +4181,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4199,7 +4196,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4210,10 +4207,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4236,13 +4233,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4293,7 +4290,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4308,7 +4305,7 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4319,10 +4316,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4345,17 +4342,17 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4404,7 +4401,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4430,10 +4427,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4456,16 +4453,16 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4515,7 +4512,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4541,10 +4538,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4567,13 +4564,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4624,7 +4621,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-profile-CareTeam.xlsx
+++ b/StructureDefinition-profile-CareTeam.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7467969-06:00</t>
+    <t>2026-02-20T11:59:20.7459303-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CareTeam|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CareTeam</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -678,7 +678,7 @@
     <t>participant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CareTeam.participant|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CareTeam.participant}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-CareTeam.xlsx
+++ b/StructureDefinition-profile-CareTeam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="268">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7459303-06:00</t>
+    <t>2026-02-21T13:36:54.1447411-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CareTeam</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CareTeam|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -672,20 +672,23 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>CareTeam.participant.extension:participant</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CareTeam.participant}
+    <t>CareTeam.participant.extension:coverage</t>
+  </si>
+  <si>
+    <t>coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-CareTeam.participant.coverage|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for CareTeam.participant from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `CareTeam.participant` has is mapped to FHIR R4 element `CareTeam.participant`, but has no comparisons.</t>
+    <t>Cross-version extension for CareTeam.participant.coverage[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>When the member is generally available within this care team.</t>
+  </si>
+  <si>
+    <t>Element `CareTeam.participant.coverage[x]` has a context of CareTeam.participant based on following the parent source element upwards and mapping to `CareTeam`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1166,7 +1169,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.90234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.44140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.4375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3446,7 +3449,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3464,10 +3467,10 @@
         <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3526,7 +3529,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>136</v>
@@ -3543,14 +3546,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3572,10 +3575,10 @@
         <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>134</v>
@@ -3630,7 +3633,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3656,10 +3659,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3685,13 +3688,13 @@
         <v>158</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3720,10 +3723,10 @@
         <v>163</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -3741,7 +3744,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3759,18 +3762,18 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3793,16 +3796,16 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3852,7 +3855,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3867,21 +3870,21 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3904,17 +3907,17 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -3963,7 +3966,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -3989,10 +3992,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4018,10 +4021,10 @@
         <v>186</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4072,7 +4075,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4098,10 +4101,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4127,10 +4130,10 @@
         <v>158</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4160,10 +4163,10 @@
         <v>163</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4181,7 +4184,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4196,7 +4199,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4207,10 +4210,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4233,13 +4236,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4290,7 +4293,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4305,7 +4308,7 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4316,10 +4319,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4342,17 +4345,17 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4401,7 +4404,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4427,10 +4430,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4453,16 +4456,16 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4512,7 +4515,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4538,10 +4541,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4564,13 +4567,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4621,7 +4624,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
